--- a/stats.xlsx
+++ b/stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xamel\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5444FBCA-8DDB-4DB2-AACB-582D1D646BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3289AF24-1625-4BAD-8209-B1E131C936E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2505" yWindow="1740" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -26,21 +26,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>n комбинаций</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Количество подзадач</t>
   </si>
   <si>
-    <t>Время выполнения подзадачи (мс)</t>
+    <t>Кол-во воркеров: 2</t>
   </si>
   <si>
-    <t>Время выполнения задачи (мс)</t>
+    <t>Размер подзадачи</t>
   </si>
   <si>
-    <t>Кол-во воркеров: 2</t>
+    <t>Время выполнения задачи</t>
   </si>
 </sst>
 </file>
@@ -86,12 +83,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -107,12 +103,15 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -169,7 +168,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> вычисления от количества комбинаций</a:t>
+              <a:t> вычисления от размера подзадачи</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -235,13 +234,25 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -253,16 +264,28 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>6883</c:v>
+                  <c:v>187.67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3826</c:v>
+                  <c:v>113.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2738</c:v>
+                  <c:v>79.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2384</c:v>
+                  <c:v>39.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1018,13 +1041,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>13008</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>9873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>590549</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>86073</xdr:rowOff>
@@ -1355,201 +1378,217 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>187.67</v>
+      </c>
+      <c r="C3" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>113.3</v>
+      </c>
+      <c r="C4" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B5" s="14">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="C5" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>39.21</v>
+      </c>
+      <c r="C6" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>8</v>
+      </c>
+      <c r="B7" s="10">
+        <v>34.44</v>
+      </c>
+      <c r="C7" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>56.93</v>
+      </c>
+      <c r="C8" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>20</v>
+      </c>
+      <c r="B9" s="14">
+        <v>83.71</v>
+      </c>
+      <c r="C9" s="15">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2">
+        <v>117.12</v>
+      </c>
+      <c r="C10" s="7">
         <v>1</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>6883</v>
-      </c>
-      <c r="C3" s="3">
-        <v>120</v>
-      </c>
-      <c r="D3" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>3826</v>
-      </c>
-      <c r="C4" s="3">
-        <v>105</v>
-      </c>
-      <c r="D4" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>5</v>
-      </c>
-      <c r="B5" s="12">
-        <v>2738</v>
-      </c>
-      <c r="C5" s="12">
-        <v>93</v>
-      </c>
-      <c r="D5" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2384</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2384</v>
-      </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="7"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="9"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="D18" s="8"/>
+      <c r="B18" s="2"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="D19" s="8"/>
+      <c r="B19" s="2"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="D20" s="8"/>
+      <c r="B20" s="2"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="D21" s="8"/>
+      <c r="B21" s="2"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="D22" s="8"/>
+      <c r="B22" s="2"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="D24" s="8"/>
+      <c r="B24" s="2"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="D25" s="8"/>
+      <c r="B25" s="2"/>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="D26" s="8"/>
+      <c r="B26" s="2"/>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="D27" s="8"/>
+      <c r="B27" s="2"/>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="D28" s="8"/>
+      <c r="B28" s="2"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="D29" s="8"/>
+      <c r="B29" s="2"/>
+      <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="8"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-      <c r="D31" s="8"/>
+      <c r="B31" s="2"/>
+      <c r="D31" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
